--- a/صيدليات دكتور مصطفي طلعت_2026-01-01_10-49.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-01_10-49.xlsx
@@ -41,22 +41,22 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
-  </si>
-  <si>
-    <t>2:2</t>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>33:0</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>57.2000</t>
-  </si>
-  <si>
-    <t>0:4</t>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
   </si>
   <si>
     <t>Thursday, 1 January, 2026 10:49 AM</t>
